--- a/data/trans_bre/P6901-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6901-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,37%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,8; 10,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,27; 18,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,06; 26,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,69; 15,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,29; 12,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,35; 29,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,59; 39,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,14; 17,93</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,77</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 15,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 17,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,46; 20,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 11,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 22,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 24,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,83; 27,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,97; 14,76</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,49%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 27,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,58; 12,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 32,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 31,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,92; 63,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,91; 22,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,53; 69,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 97,18</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,69; 9,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 11,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,16; 17,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,7; 10,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 13,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,1; 15,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,26; 25,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 14,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6901-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,97</t>
+          <t>-11,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>-13,4%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 15,11</t>
+          <t>-55,63; 14,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-67,14; 17,93</t>
+          <t>-61,34; 17,99</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 11,11</t>
+          <t>-1,73; 14,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 14,76</t>
+          <t>-2,19; 18,79</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,23</t>
+          <t>15,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>32,56%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 31,6</t>
+          <t>-1,44; 31,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 97,18</t>
+          <t>-2,44; 97,81</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 10,44</t>
+          <t>-1,55; 13,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 14,99</t>
+          <t>-2,11; 19,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6901-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P6901-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 10,43</t>
+          <t>-17,11; 11,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 18,4</t>
+          <t>-20,47; 17,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 26,92</t>
+          <t>-10,1; 26,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-55,63; 14,85</t>
+          <t>-51,31; 14,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 12,45</t>
+          <t>-18,93; 13,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 29,44</t>
+          <t>-25,48; 26,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 39,7</t>
+          <t>-11,39; 40,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-61,34; 17,99</t>
+          <t>-58,12; 17,51</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 15,82</t>
+          <t>-2,82; 14,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 17,37</t>
+          <t>-0,16; 18,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 20,33</t>
+          <t>5,16; 20,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 14,0</t>
+          <t>-1,48; 14,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 22,0</t>
+          <t>-3,63; 20,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 24,57</t>
+          <t>-0,16; 25,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 27,93</t>
+          <t>6,45; 28,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 18,79</t>
+          <t>-1,7; 19,98</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 27,41</t>
+          <t>-6,16; 26,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 12,76</t>
+          <t>-27,75; 13,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 32,47</t>
+          <t>-2,86; 31,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 31,57</t>
+          <t>-0,5; 32,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 63,0</t>
+          <t>-9,39; 60,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,91; 22,18</t>
+          <t>-37,04; 23,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 69,47</t>
+          <t>-3,94; 64,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 97,81</t>
+          <t>-0,84; 96,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 9,74</t>
+          <t>-4,22; 9,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 11,29</t>
+          <t>-4,56; 10,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 17,7</t>
+          <t>3,27; 17,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 13,53</t>
+          <t>-2,09; 13,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 13,48</t>
+          <t>-5,28; 13,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 15,72</t>
+          <t>-5,84; 15,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 25,11</t>
+          <t>4,17; 24,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 19,77</t>
+          <t>-2,77; 19,48</t>
         </is>
       </c>
     </row>
